--- a/Documents/Enemies.xlsx
+++ b/Documents/Enemies.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00193855\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00193855\Desktop\Push-Penguin-3D\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Eg. Penguin/Player</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Text Description</t>
   </si>
   <si>
-    <t>Eg Turn Left</t>
-  </si>
-  <si>
     <t>External Outgoing</t>
   </si>
   <si>
@@ -53,18 +50,12 @@
     <t>Communication with?</t>
   </si>
   <si>
-    <t>Eg Push</t>
-  </si>
-  <si>
     <t>External Incoming</t>
   </si>
   <si>
     <t xml:space="preserve">Return </t>
   </si>
   <si>
-    <t>ShouldTurnLeft</t>
-  </si>
-  <si>
     <t xml:space="preserve">Name of InterFace </t>
   </si>
   <si>
@@ -75,6 +66,57 @@
   </si>
   <si>
     <t>Enemies</t>
+  </si>
+  <si>
+    <t>Kill</t>
+  </si>
+  <si>
+    <t>IsInIceBlockLineOfFire</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>IceBlock/World?</t>
+  </si>
+  <si>
+    <t>Is the enemy in a position to be crushed by the IceBlock? If yes, fire Kill()</t>
+  </si>
+  <si>
+    <t>MovedToNewTile</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Tells the world that the enemy has moved to a new tile, and stores that tile</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>Rotate</t>
+  </si>
+  <si>
+    <t>Rotate 90, -90, 180, or -180 degrees</t>
+  </si>
+  <si>
+    <t>Move to enemy to a new position, straight ahead of the current position, then call rotate</t>
+  </si>
+  <si>
+    <t>The enemy is killed</t>
+  </si>
+  <si>
+    <t>World.enemyPositionList</t>
+  </si>
+  <si>
+    <t>Constructor</t>
+  </si>
+  <si>
+    <t>Egg/World</t>
+  </si>
+  <si>
+    <t>Create a new enemy (i.e. spawn from egg), place at egg location</t>
   </si>
 </sst>
 </file>
@@ -118,6 +160,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -392,26 +439,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="73.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -435,53 +483,101 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
         <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
